--- a/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -11,9 +16,9 @@
     <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$278</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="238">
   <si>
     <t>Asignatura</t>
   </si>
@@ -446,15 +451,6 @@
     <t>Clasificación de las ciencias</t>
   </si>
   <si>
-    <t>Las ciencias formales y empíricas</t>
-  </si>
-  <si>
-    <t>Presentación de las características de las ciencias formales y experimentales</t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
     <t>Ciencias formales y ciencias empíricas</t>
   </si>
   <si>
@@ -492,15 +488,6 @@
     <t>Normas de seguridad en el laboratorio</t>
   </si>
   <si>
-    <t>Conoce el material de laboratorio de química</t>
-  </si>
-  <si>
-    <t>Interactivo que permite comprender la utilidad de cada uno de los materiales más habituales del laboratorio</t>
-  </si>
-  <si>
-    <t>Conoce el material del laboratorio de química</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aprende las reglas de seguridad en un laboratorio </t>
   </si>
   <si>
@@ -511,15 +498,6 @@
   </si>
   <si>
     <t>Aprende las reglas de seguridad en el laboratorio</t>
-  </si>
-  <si>
-    <t>Identifica el significado de los pictogramas de seguridad en un laboratorio</t>
-  </si>
-  <si>
-    <t>Actividad que permite aprender el significado de los indicadores de seguridad de reactivos químicos</t>
-  </si>
-  <si>
-    <t>Identifica el significado de los pictogramas de seguridad</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Clasifica el material de laboratorio de química</t>
@@ -560,9 +538,6 @@
     <t>Actividad para practicar los múltiplos y submúltiplos de las principales unidades</t>
   </si>
   <si>
-    <t>Actividad sobre las magnitudes fundamentales y derivadas</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las medidas</t>
   </si>
   <si>
@@ -602,15 +577,6 @@
     <t>Actividad cuyo objetivo es practicar la conversión de unidades</t>
   </si>
   <si>
-    <t>Practica la conversión de unidades</t>
-  </si>
-  <si>
-    <t>Actividad para practicar la conversión de unidades</t>
-  </si>
-  <si>
-    <t>En aula planeta aparece como Relaciona distintas unidades</t>
-  </si>
-  <si>
     <t>Actividad que refuerza la conversión de unidades de magnitudes derivadas y fundamentales</t>
   </si>
   <si>
@@ -773,22 +739,19 @@
     <t>Revisa qué sabes sobre la física</t>
   </si>
   <si>
-    <t>Revisa qué sabe sobre la química</t>
-  </si>
-  <si>
     <t>Revisa lo que sabes sobre algunos conceptos de la Física</t>
   </si>
   <si>
-    <t>Revisa lo que sabes sobre algunos conceptos de la Química</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Es imporante mencionar las reglas básicas que se debe tener en un laboratorio a demás del método ciientífico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -837,12 +800,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,8 +807,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,8 +889,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -973,6 +944,28 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,7 +1091,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1177,10 +1170,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,6 +1189,69 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,6 +1447,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1448,7 +1506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1483,7 +1541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1692,12 +1750,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:V284"/>
+  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,17 +1765,17 @@
     <col min="3" max="3" width="39.85546875" style="18" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="34" customWidth="1"/>
     <col min="7" max="7" width="62.7109375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="11" style="35" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="11" style="34" customWidth="1"/>
     <col min="10" max="10" width="119" style="18" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="18" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" style="18" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="35" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="35" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" style="34" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="34" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="34" customWidth="1"/>
     <col min="18" max="18" width="23" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="49.140625" style="18" customWidth="1"/>
@@ -1725,97 +1783,97 @@
     <col min="22" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="64" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="73" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="65"/>
       <c r="M2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="74"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1874,66 +1932,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:21" s="49" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="50">
         <v>2</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1961,93 +2019,95 @@
         <v>141</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="N5" s="26"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="3">
-        <v>6</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="T5" s="17" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="49" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="50">
+        <v>4</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="10">
-        <v>4</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="K6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="L6" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="T6" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2058,11 +2118,9 @@
         <v>122</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E7" s="22"/>
       <c r="F7" s="19"/>
       <c r="G7" s="11" t="s">
         <v>145</v>
@@ -2071,42 +2129,44 @@
         <v>5</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>146</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>134</v>
+      <c r="Q7" s="4">
+        <v>6</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="T7" s="21" t="s">
         <v>147</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2177,7 @@
         <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="19"/>
@@ -2128,42 +2188,42 @@
         <v>6</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>149</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="3">
-        <v>6</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="T8" s="17" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T8" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U8" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2174,12 +2234,14 @@
         <v>122</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F9" s="19"/>
       <c r="G9" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H9" s="10">
         <v>7</v>
@@ -2188,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>19</v>
@@ -2198,9 +2260,11 @@
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="P9" s="19" t="s">
         <v>19</v>
       </c>
@@ -2214,72 +2278,74 @@
         <v>136</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:21" s="49" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="D10" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="50">
         <v>8</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="24" t="s">
+      <c r="L10" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="T10" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="U10" s="4" t="s">
+      <c r="T10" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="U10" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -2290,57 +2356,55 @@
         <v>122</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26" t="s">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" s="19" t="s">
+      <c r="O11" s="15"/>
+      <c r="P11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T11" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="U11" s="4" t="s">
+      <c r="T11" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2351,14 +2415,16 @@
         <v>122</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H12" s="10">
         <v>10</v>
@@ -2367,7 +2433,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>19</v>
@@ -2377,10 +2443,10 @@
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P12" s="19" t="s">
         <v>19</v>
@@ -2395,13 +2461,13 @@
         <v>136</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2412,57 +2478,55 @@
         <v>122</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="19"/>
+        <v>169</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" s="11" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H13" s="10">
         <v>11</v>
       </c>
       <c r="I13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="L13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>167</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>134</v>
+      <c r="Q13" s="4">
+        <v>6</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -2473,14 +2537,14 @@
         <v>122</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="10">
         <v>12</v>
@@ -2489,39 +2553,39 @@
         <v>20</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="25" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T14" s="21" t="s">
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+      <c r="R14" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2532,16 +2596,14 @@
         <v>122</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>174</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F15" s="19"/>
       <c r="G15" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H15" s="10">
         <v>13</v>
@@ -2550,7 +2612,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>19</v>
@@ -2560,11 +2622,9 @@
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>160</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O15" s="19"/>
       <c r="P15" s="19" t="s">
         <v>19</v>
       </c>
@@ -2578,75 +2638,72 @@
         <v>136</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:21" s="49" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="D16" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="50">
+        <v>14</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>6</v>
+      </c>
+      <c r="R16" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="S16" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="10">
-        <v>14</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T16" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V16" s="28"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T16" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
@@ -2657,52 +2714,52 @@
         <v>122</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H17" s="10">
         <v>15</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19" t="s">
+      <c r="L17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="3">
         <v>6</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2716,52 +2773,52 @@
         <v>122</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="19"/>
       <c r="G18" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H18" s="10">
         <v>16</v>
       </c>
       <c r="I18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="L18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="P18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="3">
-        <v>6</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>132</v>
+      <c r="Q18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2772,17 +2829,15 @@
         <v>124</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="19"/>
       <c r="G19" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H19" s="10">
         <v>17</v>
@@ -2791,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>19</v>
@@ -2801,9 +2856,11 @@
       </c>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="P19" s="19" t="s">
         <v>19</v>
       </c>
@@ -2817,7 +2874,7 @@
         <v>136</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>138</v>
@@ -2831,17 +2888,15 @@
         <v>124</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="19"/>
       <c r="G20" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H20" s="10">
         <v>18</v>
@@ -2850,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>19</v>
@@ -2860,11 +2915,9 @@
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>193</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O20" s="19"/>
       <c r="P20" s="19" t="s">
         <v>19</v>
       </c>
@@ -2878,72 +2931,72 @@
         <v>136</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="U20" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:21" s="49" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="F21" s="45"/>
+      <c r="G21" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="50">
         <v>19</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="K21" s="24" t="s">
+      <c r="J21" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26" t="s">
+      <c r="M21" s="53"/>
+      <c r="N21" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19" t="s">
+      <c r="O21" s="45"/>
+      <c r="P21" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="46">
         <v>6</v>
       </c>
-      <c r="R21" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T21" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R21" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="T21" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="U21" s="46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
@@ -2951,55 +3004,53 @@
         <v>124</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H22" s="10">
         <v>20</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>20</v>
+      <c r="I22" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P22" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="3">
-        <v>6</v>
+      <c r="L22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3010,15 +3061,15 @@
         <v>124</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>199</v>
+      </c>
+      <c r="E23" s="28"/>
       <c r="F23" s="19"/>
       <c r="G23" s="11" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="H23" s="10">
         <v>21</v>
@@ -3027,100 +3078,98 @@
         <v>20</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" s="25" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="26"/>
       <c r="N23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>160</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O23" s="19"/>
       <c r="P23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3">
+        <v>6</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="49" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="50">
+        <v>22</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="R23" s="20" t="s">
+      <c r="R24" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S24" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="T23" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="U23" s="4" t="s">
+      <c r="T24" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="U24" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="10">
-        <v>22</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R24" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T24" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
@@ -3128,52 +3177,52 @@
         <v>124</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H25" s="10">
         <v>23</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>20</v>
+      <c r="I25" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K25" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19" t="s">
+      <c r="L25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="20" t="s">
+      <c r="R25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T25" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="U25" s="4" t="s">
+      <c r="T25" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="U25" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3185,55 +3234,53 @@
         <v>124</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="19"/>
       <c r="G26" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H26" s="10">
         <v>24</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26" t="s">
-        <v>52</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="26"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="4">
-        <v>6</v>
+      <c r="Q26" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3244,35 +3291,35 @@
         <v>124</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="19"/>
       <c r="G27" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H27" s="10">
         <v>25</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="O27" s="19"/>
       <c r="P27" s="19" t="s">
         <v>19</v>
@@ -3287,70 +3334,72 @@
         <v>136</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:21" s="49" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="C28" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="50">
         <v>26</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="25" t="s">
+      <c r="J28" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19" t="s">
+      <c r="M28" s="53"/>
+      <c r="N28" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="3">
-        <v>6</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="T28" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q28" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="R28" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="S28" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="T28" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="U28" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
@@ -3358,54 +3407,52 @@
         <v>124</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="19"/>
+        <v>217</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H29" s="10">
         <v>27</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K29" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19" t="s">
+      <c r="M29" s="14"/>
+      <c r="N29" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="R29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T29" s="21" t="s">
+      <c r="T29" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3417,10 +3464,10 @@
         <v>124</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="19"/>
@@ -3431,7 +3478,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>221</v>
@@ -3440,12 +3487,12 @@
         <v>19</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="N30" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26" t="s">
+        <v>121</v>
+      </c>
       <c r="O30" s="19"/>
       <c r="P30" s="19" t="s">
         <v>19</v>
@@ -3474,54 +3521,42 @@
         <v>124</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>223</v>
+      </c>
+      <c r="E31" s="28"/>
       <c r="F31" s="19"/>
       <c r="G31" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H31" s="10">
         <v>29</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>55</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R31" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T31" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -3531,12 +3566,12 @@
         <v>124</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="8"/>
+        <v>223</v>
+      </c>
+      <c r="E32" s="28"/>
       <c r="F32" s="19"/>
       <c r="G32" s="11" t="s">
         <v>225</v>
@@ -3548,36 +3583,36 @@
         <v>20</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="26"/>
       <c r="N32" s="26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R32" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T32" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>138</v>
+      <c r="Q32" s="3">
+        <v>6</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3588,15 +3623,15 @@
         <v>124</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="29"/>
+        <v>223</v>
+      </c>
+      <c r="E33" s="22"/>
       <c r="F33" s="19"/>
       <c r="G33" s="11" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="H33" s="10">
         <v>31</v>
@@ -3605,7 +3640,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>20</v>
@@ -3615,371 +3650,177 @@
       </c>
       <c r="M33" s="26"/>
       <c r="N33" s="26" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O33" s="19"/>
       <c r="P33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>6</v>
-      </c>
-      <c r="R33" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="T33" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>10</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="10">
-        <v>32</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="26"/>
-      <c r="N34" s="26" t="s">
-        <v>52</v>
-      </c>
+      <c r="N34" s="26"/>
       <c r="O34" s="19"/>
-      <c r="P34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R34" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T34" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="8"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="10">
-        <v>33</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
       <c r="M35" s="26"/>
-      <c r="N35" s="26" t="s">
-        <v>121</v>
-      </c>
+      <c r="N35" s="26"/>
       <c r="O35" s="19"/>
-      <c r="P35" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R35" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T35" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="8"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H36" s="10">
-        <v>34</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="26" t="s">
-        <v>121</v>
-      </c>
+      <c r="N36" s="26"/>
       <c r="O36" s="19"/>
-      <c r="P36" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R36" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T36" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="29"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="10">
-        <v>35</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="26"/>
       <c r="N37" s="26"/>
       <c r="O37" s="19"/>
-      <c r="P37" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="P37" s="19"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="20"/>
       <c r="S37" s="4"/>
       <c r="T37" s="21"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="29"/>
+    <row r="38" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="H38" s="10">
-        <v>36</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="N38" s="26"/>
       <c r="O38" s="19"/>
-      <c r="P38" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>6</v>
-      </c>
-      <c r="R38" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="T38" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="22"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H39" s="10">
-        <v>37</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="26"/>
-      <c r="N39" s="26" t="s">
-        <v>53</v>
-      </c>
+      <c r="N39" s="26"/>
       <c r="O39" s="19"/>
-      <c r="P39" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>10</v>
-      </c>
-      <c r="R39" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T39" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="22"/>
       <c r="F40" s="19"/>
       <c r="G40" s="11"/>
       <c r="H40" s="10"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="32"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="26"/>
@@ -3993,16 +3834,16 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="22"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="33"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="22"/>
       <c r="F41" s="19"/>
       <c r="G41" s="11"/>
       <c r="H41" s="10"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="32"/>
+      <c r="J41" s="31"/>
       <c r="K41" s="24"/>
       <c r="L41" s="25"/>
       <c r="M41" s="26"/>
@@ -4016,16 +3857,16 @@
       <c r="U41" s="4"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="33"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="22"/>
       <c r="F42" s="19"/>
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="32"/>
+      <c r="J42" s="31"/>
       <c r="K42" s="24"/>
       <c r="L42" s="25"/>
       <c r="M42" s="26"/>
@@ -4039,16 +3880,16 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="22"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="33"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="22"/>
       <c r="F43" s="19"/>
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="31"/>
       <c r="K43" s="24"/>
       <c r="L43" s="25"/>
       <c r="M43" s="26"/>
@@ -4062,16 +3903,16 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="22"/>
       <c r="F44" s="19"/>
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="24"/>
       <c r="L44" s="25"/>
       <c r="M44" s="26"/>
@@ -4085,16 +3926,16 @@
       <c r="U44" s="4"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="22"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="22"/>
       <c r="F45" s="19"/>
       <c r="G45" s="11"/>
       <c r="H45" s="10"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="32"/>
+      <c r="J45" s="31"/>
       <c r="K45" s="24"/>
       <c r="L45" s="25"/>
       <c r="M45" s="26"/>
@@ -4108,16 +3949,16 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="22"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="33"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="22"/>
       <c r="F46" s="19"/>
       <c r="G46" s="11"/>
       <c r="H46" s="10"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="31"/>
       <c r="K46" s="24"/>
       <c r="L46" s="25"/>
       <c r="M46" s="26"/>
@@ -4131,16 +3972,16 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="22"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="33"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="22"/>
       <c r="F47" s="19"/>
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="32"/>
+      <c r="J47" s="31"/>
       <c r="K47" s="24"/>
       <c r="L47" s="25"/>
       <c r="M47" s="26"/>
@@ -4154,16 +3995,16 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="22"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="33"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="22"/>
       <c r="F48" s="19"/>
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="32"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="24"/>
       <c r="L48" s="25"/>
       <c r="M48" s="26"/>
@@ -4177,16 +4018,16 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="22"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="33"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="22"/>
       <c r="F49" s="19"/>
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="32"/>
+      <c r="J49" s="31"/>
       <c r="K49" s="24"/>
       <c r="L49" s="25"/>
       <c r="M49" s="26"/>
@@ -4200,16 +4041,16 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="22"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="33"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="22"/>
       <c r="F50" s="19"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="32"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="24"/>
       <c r="L50" s="25"/>
       <c r="M50" s="26"/>
@@ -4223,16 +4064,16 @@
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="33"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="22"/>
       <c r="F51" s="19"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="32"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="24"/>
       <c r="L51" s="25"/>
       <c r="M51" s="26"/>
@@ -4246,16 +4087,16 @@
       <c r="U51" s="4"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="22"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="33"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="22"/>
       <c r="F52" s="19"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="32"/>
+      <c r="J52" s="31"/>
       <c r="K52" s="24"/>
       <c r="L52" s="25"/>
       <c r="M52" s="26"/>
@@ -4269,16 +4110,16 @@
       <c r="U52" s="4"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="22"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="33"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="22"/>
       <c r="F53" s="19"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="32"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="24"/>
       <c r="L53" s="25"/>
       <c r="M53" s="26"/>
@@ -4292,16 +4133,16 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="33"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="22"/>
       <c r="F54" s="19"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="31"/>
       <c r="K54" s="24"/>
       <c r="L54" s="25"/>
       <c r="M54" s="26"/>
@@ -4315,16 +4156,16 @@
       <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="22"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="33"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="22"/>
       <c r="F55" s="19"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="10"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="32"/>
+      <c r="J55" s="31"/>
       <c r="K55" s="24"/>
       <c r="L55" s="25"/>
       <c r="M55" s="26"/>
@@ -4338,16 +4179,16 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="33"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="22"/>
       <c r="F56" s="19"/>
       <c r="G56" s="11"/>
       <c r="H56" s="19"/>
       <c r="I56" s="23"/>
-      <c r="J56" s="32"/>
+      <c r="J56" s="31"/>
       <c r="K56" s="24"/>
       <c r="L56" s="25"/>
       <c r="M56" s="26"/>
@@ -4361,16 +4202,16 @@
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="22"/>
       <c r="F57" s="19"/>
       <c r="G57" s="11"/>
       <c r="H57" s="19"/>
       <c r="I57" s="23"/>
-      <c r="J57" s="32"/>
+      <c r="J57" s="31"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="26"/>
@@ -4384,16 +4225,16 @@
       <c r="U57" s="4"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="22"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="33"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="22"/>
       <c r="F58" s="19"/>
       <c r="G58" s="11"/>
       <c r="H58" s="19"/>
       <c r="I58" s="23"/>
-      <c r="J58" s="32"/>
+      <c r="J58" s="31"/>
       <c r="K58" s="24"/>
       <c r="L58" s="25"/>
       <c r="M58" s="26"/>
@@ -4407,16 +4248,16 @@
       <c r="U58" s="4"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="22"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="33"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="22"/>
       <c r="F59" s="19"/>
       <c r="G59" s="11"/>
       <c r="H59" s="19"/>
       <c r="I59" s="23"/>
-      <c r="J59" s="32"/>
+      <c r="J59" s="31"/>
       <c r="K59" s="24"/>
       <c r="L59" s="25"/>
       <c r="M59" s="26"/>
@@ -4430,16 +4271,16 @@
       <c r="U59" s="4"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="22"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="33"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="22"/>
       <c r="F60" s="19"/>
       <c r="G60" s="11"/>
       <c r="H60" s="19"/>
       <c r="I60" s="23"/>
-      <c r="J60" s="32"/>
+      <c r="J60" s="31"/>
       <c r="K60" s="24"/>
       <c r="L60" s="25"/>
       <c r="M60" s="26"/>
@@ -4453,16 +4294,16 @@
       <c r="U60" s="4"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="22"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="33"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="22"/>
       <c r="F61" s="19"/>
       <c r="G61" s="11"/>
       <c r="H61" s="19"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="32"/>
+      <c r="J61" s="31"/>
       <c r="K61" s="24"/>
       <c r="L61" s="25"/>
       <c r="M61" s="26"/>
@@ -4476,16 +4317,16 @@
       <c r="U61" s="4"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="22"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="33"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="22"/>
       <c r="F62" s="19"/>
       <c r="G62" s="11"/>
       <c r="H62" s="19"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="32"/>
+      <c r="J62" s="31"/>
       <c r="K62" s="24"/>
       <c r="L62" s="25"/>
       <c r="M62" s="26"/>
@@ -4499,16 +4340,16 @@
       <c r="U62" s="4"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="22"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="22"/>
       <c r="F63" s="19"/>
       <c r="G63" s="11"/>
       <c r="H63" s="19"/>
       <c r="I63" s="23"/>
-      <c r="J63" s="32"/>
+      <c r="J63" s="31"/>
       <c r="K63" s="24"/>
       <c r="L63" s="25"/>
       <c r="M63" s="26"/>
@@ -4522,16 +4363,16 @@
       <c r="U63" s="4"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="22"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="33"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="22"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="11"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="19"/>
       <c r="I64" s="23"/>
-      <c r="J64" s="32"/>
+      <c r="J64" s="31"/>
       <c r="K64" s="24"/>
       <c r="L64" s="25"/>
       <c r="M64" s="26"/>
@@ -4544,343 +4385,211 @@
       <c r="T64" s="21"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="4"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="4"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="4"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="4"/>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="4"/>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5038,21 +4747,15 @@
     <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="P1:P284">
+  <autoFilter ref="P1:P278">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="T1:T2"/>
@@ -5060,7 +4763,6 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -5075,39 +4777,39 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>DATOS!$E$1:$E$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>M33:M64 M3:M31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N38 N3:N37 N39:N70</xm:sqref>
+          <xm:sqref>N3:N64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A70</xm:sqref>
+          <xm:sqref>A3:A64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I70 K3:K70 P3:P70</xm:sqref>
+          <xm:sqref>I3:I64 K3:K64 P3:P64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L70</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$1:$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3:M37 M39:M70</xm:sqref>
+          <xm:sqref>L3:L64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5120,7 +4822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
